--- a/本体/雷达试验知识抽取.xlsx
+++ b/本体/雷达试验知识抽取.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="328">
   <si>
     <t>雷达试验任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,24 +1711,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A79:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="14.9140625" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>325</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>325</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>326</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>326</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>326</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>327</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>326</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>326</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>326</v>
       </c>
@@ -1920,22 +1920,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>264</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>273</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>258</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>258</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>271</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>258</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>258</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>267</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>305</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>305</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>305</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>263</v>
       </c>
@@ -2071,37 +2071,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>258</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>258</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>265</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>263</v>
       </c>
@@ -2197,62 +2197,62 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G70" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G71" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>263</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>261</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>261</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>261</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>261</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -2332,32 +2332,32 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>263</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>306</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>307</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>272</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>258</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>258</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>317</v>
       </c>
@@ -2461,77 +2461,77 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>309</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>261</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>310</v>
       </c>
@@ -2566,12 +2566,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -2583,7 +2583,7 @@
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>209</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>212</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>214</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>218</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>220</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>224</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>225</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>230</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>229</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>232</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>161</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>164</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>166</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>169</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>170</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>172</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>174</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>177</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>178</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>240</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>319</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>284</v>
       </c>
@@ -2992,18 +2992,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.4140625" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>250</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>185</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>187</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>188</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>189</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>181</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>320</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -3196,24 +3196,33 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>311</v>
+      </c>
+      <c r="G22" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3228,16 +3237,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>283</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>282</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>281</v>
       </c>
@@ -3284,7 +3293,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>295</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>296</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>297</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>298</v>
       </c>
@@ -3324,7 +3333,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>300</v>
       </c>
@@ -3332,7 +3341,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>314</v>
       </c>
@@ -3348,7 +3357,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>315</v>
       </c>
@@ -3367,10 +3376,10 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H4" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="56.25" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
@@ -3378,7 +3387,7 @@
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -3436,7 +3445,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>205</v>
       </c>

--- a/本体/雷达试验知识抽取.xlsx
+++ b/本体/雷达试验知识抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6270" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15380" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1901,7 +1909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1934,6 +1942,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2207,7 +2218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2222,16 +2233,16 @@
       <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1"/>
-    <col min="8" max="8" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3974,11 +3985,11 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4265,13 +4276,13 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4417,11 +4428,11 @@
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4984,11 +4995,11 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5025,9 +5036,9 @@
       <selection activeCell="A29" sqref="A29:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5406,15 +5417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="5"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -7292,16 +7303,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:C73"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -7498,259 +7509,263 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>161</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" t="s">
-        <v>173</v>
-      </c>
-      <c r="J37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
+    <row r="33" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="9"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
       <c r="C49" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="62" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9" t="s">
+    <row r="52" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
+    <row r="53" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="8" t="s">
+        <v>443</v>
+      </c>
       <c r="C64" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3"/>
-      <c r="C65" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
-        <v>443</v>
-      </c>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9" t="s">
+    <row r="69" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="9"/>
+    </row>
     <row r="89" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="4:4" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7765,7 +7780,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7780,10 +7795,10 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7922,19 +7937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
